--- a/Assets/06.Table/TowerTable6.xlsx
+++ b/Assets/06.Table/TowerTable6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2525F02A-5435-49FE-9B74-BE808C9591D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947EFD88-8CDE-40E8-8B82-69A00B048D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable6" sheetId="1" r:id="rId1"/>
@@ -266,51 +266,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -669,7 +625,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -734,7 +690,7 @@
         <v>45</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -772,7 +728,7 @@
         <v>45</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -810,7 +766,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -848,7 +804,7 @@
         <v>45</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -886,7 +842,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -924,7 +880,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -962,7 +918,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1000,7 +956,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="1">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1038,7 +994,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1076,7 +1032,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1114,7 +1070,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="1">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1152,7 +1108,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1190,7 +1146,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1228,7 +1184,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="1">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1266,7 +1222,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1295,24 +1251,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E8 G2:J8 E13 G13:J13 E15 G15:J15 L2:L16 F2:F16 A2:D16">
-    <cfRule type="expression" dxfId="3" priority="67">
+  <conditionalFormatting sqref="A2:J16">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E10 G9:J10">
-    <cfRule type="expression" dxfId="2" priority="14">
-      <formula>$C9=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11 G11:J11">
-    <cfRule type="expression" dxfId="1" priority="13">
-      <formula>$C11=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12 G12:J12 E14 E16 G14:J14 G16:J16">
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>$C12=5</formula>
+  <conditionalFormatting sqref="L2:L16">
+    <cfRule type="expression" dxfId="1" priority="67">
+      <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
